--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_MCPS_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_MCPS_Lineal_No_Estacionario_ARIMA.xlsx
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>1.894804144796328</v>
+        <v>4.030571754325861</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>2.449251213069206</v>
+        <v>2.60546433418054</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>2.356508245692187</v>
+        <v>3.062431037147692</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>2.08390737862229</v>
+        <v>3.033430933567757</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>2.076413338813119</v>
+        <v>2.495345276450561</v>
       </c>
     </row>
   </sheetData>
